--- a/3/1108_2/3_1108_2_SS.xlsx
+++ b/3/1108_2/3_1108_2_SS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management-3dPrinter/3/1108_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matlab\Documents\ansys\ansys-management-3dPrinter\3\1108_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C5A7DF-347A-4F49-ACD3-FAE487593887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BACB78B-61EC-4F0C-B8AA-C633B5659D09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10820" yWindow="5420" windowWidth="16100" windowHeight="12500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="705" windowWidth="13290" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8317,7 +8317,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8332,9 +8332,9 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>4269.893174603174</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>3508.7457431457451</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -8378,7 +8378,7 @@
         <v>3757.893650793651</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -8402,9 +8402,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>36.441857142857138</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>4269.893174603174</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -8475,7 +8475,7 @@
         <v>1.921457142857143</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.06</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>2.561928571428572</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>3.2024142857142861</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.09</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>3.8429000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.105</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>4.4833857142857143</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -8545,7 +8545,7 @@
         <v>5.1238714285714284</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.13500000000000001</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>5.7643571428571434</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.15</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>6.4048285714285713</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.16500000000000001</v>
       </c>
@@ -8587,7 +8587,7 @@
         <v>7.0453142857142863</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.18</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>7.6858000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.19500000000000001</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>8.3262857142857154</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.21</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>8.9667714285714286</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.22500000000000001</v>
       </c>
@@ -8643,7 +8643,7 @@
         <v>9.6072571428571436</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.24</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>10.24774285714286</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.255</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>10.888214285714289</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.27</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>11.528700000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.28499999999999998</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>12.16918571428571</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>12.809671428571431</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.315</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>13.45015714285714</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.33</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>14.090642857142861</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.34499999999999997</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>14.73114285714286</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.36</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>15.37157142857143</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.375</v>
       </c>
@@ -8783,7 +8783,7 @@
         <v>16.012142857142859</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.39</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>16.652571428571431</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.40500000000000003</v>
       </c>
@@ -8811,7 +8811,7 @@
         <v>17.292999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.42</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>17.93357142857143</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.435</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>18.574000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>19.214571428571428</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.46500000000000002</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>19.855</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.48</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>20.495428571428569</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.495</v>
       </c>
@@ -8895,7 +8895,7 @@
         <v>21.135999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>0.51</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>21.776428571428571</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.52500000000000002</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>22.41685714285714</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>0.54</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>23.05742857142857</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>0.55500000000000005</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>23.697857142857139</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>0.56999999999999995</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>24.338428571428569</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>0.58499999999999996</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>24.978857142857141</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0.6</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>25.619285714285709</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>0.61499999999999999</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>26.25985714285714</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>0.63</v>
       </c>
@@ -9021,7 +9021,7 @@
         <v>26.900285714285719</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>0.64500000000000002</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>27.540857142857138</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>0.66</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>28.18128571428571</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>0.67500000000000004</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>28.82171428571429</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0.69</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>29.46228571428572</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>0.70499999999999996</v>
       </c>
@@ -9091,7 +9091,7 @@
         <v>30.102714285714281</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>0.72</v>
       </c>
@@ -9105,7 +9105,7 @@
         <v>30.74314285714286</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>0.73499999999999999</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>31.383714285714291</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>0.75</v>
       </c>
@@ -9133,7 +9133,7 @@
         <v>32.024142857142863</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>0.76500000000000001</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>32.66471428571429</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>0.78</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>33.305</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>0.79500000000000004</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>33.945285714285717</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>0.81</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>34.585428571428572</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>0.82499999999999996</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>35.225428571428573</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>0.84</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>35.855714285714278</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>0.85499999999999998</v>
       </c>
@@ -9231,7 +9231,7 @@
         <v>36.441857142857138</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>0.87</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>31.178714285714289</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>0.88500000000000001</v>
       </c>
@@ -9259,7 +9259,7 @@
         <v>16.75114285714286</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>0.9</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>1.9321857142857141E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>0.91500000000000004</v>
       </c>
@@ -9287,7 +9287,7 @@
         <v>1.529385714285714E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>0.93</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>0.94499999999999995</v>
       </c>
@@ -9315,7 +9315,7 @@
         <v>1.5429E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0.96</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>1.566242857142857E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0.97499999999999998</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>1.5904428571428569E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>0.99</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>1.6149142857142851E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1.0049999999999999</v>
       </c>
@@ -9371,7 +9371,7 @@
         <v>1.636828571428571E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1.02</v>
       </c>
@@ -9385,7 +9385,7 @@
         <v>1.6427428571428569E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1.0349999999999999</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>1.6669E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1.05</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>1.6910428571428569E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1.0649999999999999</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>1.7152000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1.08</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>1.739342857142857E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1.095</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>1.7635000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1.1100000000000001</v>
       </c>
@@ -9469,7 +9469,7 @@
         <v>1.7876285714285709E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1.125</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>1.8117571428571431E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1.1399999999999999</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>1.8359142857142859E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1.155</v>
       </c>
@@ -9511,7 +9511,7 @@
         <v>1.8600285714285719E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1.17</v>
       </c>
@@ -9525,7 +9525,7 @@
         <v>1.8841857142857139E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1.1850000000000001</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>1.9083428571428571E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1.2</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>1.9324999999999998E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1.2150000000000001</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>1.9566428571428571E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1.23</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>1.9769857142857141E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1.2450000000000001</v>
       </c>
@@ -9595,7 +9595,7 @@
         <v>1.9963285714285711E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1.26</v>
       </c>
@@ -9609,7 +9609,7 @@
         <v>2.0202571428571431E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1.2749999999999999</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>2.044271428571429E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1.29</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>2.0682857142857142E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1.3049999999999999</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>2.0923142857142859E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1.32</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>2.116257142857143E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1.335</v>
       </c>
@@ -9679,7 +9679,7 @@
         <v>2.140285714285714E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1.35</v>
       </c>
@@ -9693,7 +9693,7 @@
         <v>2.1643285714285719E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1.365</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>2.1883714285714281E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1.38</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>2.212414285714286E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1.395</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>2.236442857142857E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1.41</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>2.2604285714285719E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1.425</v>
       </c>
@@ -9763,7 +9763,7 @@
         <v>2.2843857142857141E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1.44</v>
       </c>
@@ -9777,7 +9777,7 @@
         <v>2.3062142857142861E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1.4550000000000001</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>2.3302E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1.47</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>2.354228571428572E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1.4850000000000001</v>
       </c>
@@ -9819,7 +9819,7 @@
         <v>2.3782000000000001E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1.5</v>
       </c>
@@ -9848,9 +9848,9 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>11.75645714285714</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>3508.7457431457451</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -9921,7 +9921,7 @@
         <v>1.5826285714285711</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.06</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>2.1101714285714279</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -9949,7 +9949,7 @@
         <v>2.637714285714285</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.09</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>3.165257142857143</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.105</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>3.6928000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>4.2191142857142863</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.13500000000000001</v>
       </c>
@@ -10005,7 +10005,7 @@
         <v>4.7441571428571434</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.15</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>5.2564428571428579</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.16500000000000001</v>
       </c>
@@ -10033,7 +10033,7 @@
         <v>5.7389999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.18</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>6.201085714285715</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.19500000000000001</v>
       </c>
@@ -10061,7 +10061,7 @@
         <v>6.5661714285714288</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.21</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>6.979457142857143</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.22500000000000001</v>
       </c>
@@ -10089,7 +10089,7 @@
         <v>7.4458142857142846</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.24</v>
       </c>
@@ -10103,7 +10103,7 @@
         <v>7.9249428571428568</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.255</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>8.4008000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.27</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>8.8785857142857143</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.28499999999999998</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>9.3493428571428563</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>9.8215571428571433</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.315</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>10.281942857142861</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.33</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>10.729799999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.34499999999999997</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>11.15507142857143</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.36</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>11.536185714285709</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.375</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>11.75645714285714</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.39</v>
       </c>
@@ -10243,7 +10243,7 @@
         <v>11.725300000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.40500000000000003</v>
       </c>
@@ -10257,7 +10257,7 @@
         <v>11.57815714285714</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.42</v>
       </c>
@@ -10271,7 +10271,7 @@
         <v>11.25285714285714</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.435</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>10.57141428571429</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>9.2775714285714272</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.46500000000000002</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>5.4450285714285709</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.48</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>3.5685571428571432</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.495</v>
       </c>
@@ -10341,7 +10341,7 @@
         <v>3.2836857142857139</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>0.51</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>3.1906857142857139</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.52500000000000002</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>3.0727857142857138</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>0.54</v>
       </c>
@@ -10383,7 +10383,7 @@
         <v>2.9730428571428571</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>0.55500000000000005</v>
       </c>
@@ -10397,7 +10397,7 @@
         <v>2.9120857142857139</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>0.56999999999999995</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>2.834028571428572</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>0.58499999999999996</v>
       </c>
@@ -10425,7 +10425,7 @@
         <v>2.7669428571428569</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0.6</v>
       </c>
@@ -10439,7 +10439,7 @@
         <v>2.6862714285714282</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>0.61499999999999999</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>2.5740285714285709</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>0.63</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>2.435542857142857</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>0.64500000000000002</v>
       </c>
@@ -10481,7 +10481,7 @@
         <v>2.300385714285714</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>0.66</v>
       </c>
@@ -10495,7 +10495,7 @@
         <v>2.2131428571428571</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>0.67500000000000004</v>
       </c>
@@ -10509,7 +10509,7 @@
         <v>2.1978142857142862</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0.69</v>
       </c>
@@ -10523,7 +10523,7 @@
         <v>2.2037714285714292</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>0.70499999999999996</v>
       </c>
@@ -10537,7 +10537,7 @@
         <v>2.1897142857142859</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>0.72</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>2.1324142857142858</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>0.73499999999999999</v>
       </c>
@@ -10565,7 +10565,7 @@
         <v>2.106357142857143</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>0.75</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>2.0402428571428568</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>0.76500000000000001</v>
       </c>
@@ -10593,7 +10593,7 @@
         <v>1.937628571428571</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>0.78</v>
       </c>
@@ -10607,7 +10607,7 @@
         <v>1.842742857142857</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>0.79500000000000004</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>1.7394857142857141</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>0.81</v>
       </c>
@@ -10635,7 +10635,7 @@
         <v>1.610514285714286</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>0.82499999999999996</v>
       </c>
@@ -10649,7 +10649,7 @@
         <v>1.487957142857143</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>0.84</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>1.3820557142857139</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>0.85499999999999998</v>
       </c>
@@ -10677,7 +10677,7 @@
         <v>1.2618928571428569</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>0.87</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>1.1538200000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>0.88500000000000001</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>1.0237671428571431</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>0.9</v>
       </c>
@@ -10719,7 +10719,7 @@
         <v>0.88300571428571428</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>0.91500000000000004</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>0.74184285714285714</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>0.93</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>0.58310428571428574</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>0.94499999999999995</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>0.46450285714285722</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0.96</v>
       </c>
@@ -10775,7 +10775,7 @@
         <v>0.38579857142857138</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0.97499999999999998</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>0.33694000000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>0.99</v>
       </c>
@@ -10803,7 +10803,7 @@
         <v>0.31287285714285712</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1.0049999999999999</v>
       </c>
@@ -10817,7 +10817,7 @@
         <v>0.29513428571428568</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1.02</v>
       </c>
@@ -10831,7 +10831,7 @@
         <v>0.28081</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1.0349999999999999</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0.27732285714285709</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1.05</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0.27323142857142863</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1.0649999999999999</v>
       </c>
@@ -10873,7 +10873,7 @@
         <v>0.27360428571428569</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1.08</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>0.27412571428571431</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1.095</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>0.27221857142857142</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1.1100000000000001</v>
       </c>
@@ -10915,7 +10915,7 @@
         <v>0.27280285714285712</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1.125</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>0.27051285714285722</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1.1399999999999999</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>0.26432857142857141</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1.155</v>
       </c>
@@ -10957,7 +10957,7 @@
         <v>0.26259571428571432</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1.17</v>
       </c>
@@ -10971,7 +10971,7 @@
         <v>0.26219999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1.1850000000000001</v>
       </c>
@@ -10985,7 +10985,7 @@
         <v>0.26049714285714293</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1.2</v>
       </c>
@@ -10999,7 +10999,7 @@
         <v>0.2564414285714286</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1.2150000000000001</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>0.25527714285714281</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1.23</v>
       </c>
@@ -11027,7 +11027,7 @@
         <v>0.25406857142857142</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1.2450000000000001</v>
       </c>
@@ -11041,7 +11041,7 @@
         <v>0.2524142857142857</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1.26</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>0.24866285714285721</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1.2749999999999999</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>0.24512285714285709</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1.29</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>0.24555142857142859</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1.3049999999999999</v>
       </c>
@@ -11097,7 +11097,7 @@
         <v>0.24649714285714289</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1.32</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>0.24530142857142859</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1.335</v>
       </c>
@@ -11125,7 +11125,7 @@
         <v>0.24490857142857139</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1.35</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>0.24480571428571429</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1.365</v>
       </c>
@@ -11153,7 +11153,7 @@
         <v>0.245</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1.38</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>0.2445342857142857</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1.395</v>
       </c>
@@ -11181,7 +11181,7 @@
         <v>0.2416685714285714</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1.41</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>0.2396385714285714</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1.425</v>
       </c>
@@ -11209,7 +11209,7 @@
         <v>0.24027857142857151</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1.44</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>0.24020285714285711</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1.4550000000000001</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>0.2409785714285714</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1.47</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>0.2422871428571429</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1.4850000000000001</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>0.2394257142857143</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1.4924999999999999</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>0.2394</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>1.4962</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>0.23881857142857149</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>1.4977</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>0.23827999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>1.4988999999999999</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>0.2363142857142857</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>1.5</v>
       </c>
@@ -11348,9 +11348,9 @@
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -11367,7 +11367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>13.780428571428571</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>3757.893650793651</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -11421,7 +11421,7 @@
         <v>1.691728571428571</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.06</v>
       </c>
@@ -11435,7 +11435,7 @@
         <v>2.2556285714285709</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -11449,7 +11449,7 @@
         <v>2.8195428571428569</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.09</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>3.3834428571428572</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.105</v>
       </c>
@@ -11477,7 +11477,7 @@
         <v>3.9473571428571428</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>4.5101428571428572</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.13500000000000001</v>
       </c>
@@ -11505,7 +11505,7 @@
         <v>5.0726571428571434</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.15</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>5.6304714285714281</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.16500000000000001</v>
       </c>
@@ -11533,7 +11533,7 @@
         <v>6.1788285714285713</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.18</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>6.7090428571428573</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.19500000000000001</v>
       </c>
@@ -11561,7 +11561,7 @@
         <v>7.2032857142857143</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.21</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>7.6208428571428568</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.22500000000000001</v>
       </c>
@@ -11589,7 +11589,7 @@
         <v>8.1055571428571422</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.24</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>8.6089285714285708</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.255</v>
       </c>
@@ -11617,7 +11617,7 @@
         <v>9.1326285714285707</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.27</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>9.6529571428571419</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.28499999999999998</v>
       </c>
@@ -11645,7 +11645,7 @@
         <v>10.174885714285709</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>10.692728571428569</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.315</v>
       </c>
@@ -11673,7 +11673,7 @@
         <v>11.21054285714286</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.33</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>11.72052857142857</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.34499999999999997</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>12.225714285714281</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.36</v>
       </c>
@@ -11715,7 +11715,7 @@
         <v>12.70937142857143</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.375</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>13.1485</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.39</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>13.53984285714286</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.40500000000000003</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>13.7196</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.42</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>13.780428571428571</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.435</v>
       </c>
@@ -11785,7 +11785,7 @@
         <v>13.75378571428571</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>13.604471428571429</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.46500000000000002</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>12.99952857142857</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.48</v>
       </c>
@@ -11827,7 +11827,7 @@
         <v>11.023057142857139</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.495</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>9.017257142857142</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>0.51</v>
       </c>
@@ -11855,7 +11855,7 @@
         <v>7.040742857142857</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.52500000000000002</v>
       </c>
@@ -11869,7 +11869,7 @@
         <v>7.0698999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>0.54</v>
       </c>
@@ -11883,7 +11883,7 @@
         <v>7.1090857142857136</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>0.55500000000000005</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>7.1201571428571429</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>0.56999999999999995</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>7.0326571428571416</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>0.58499999999999996</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>6.848414285714286</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0.6</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>6.4542571428571431</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>0.61499999999999999</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>6.1898714285714282</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>0.63</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>6.1401571428571424</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>0.64500000000000002</v>
       </c>
@@ -11981,7 +11981,7 @@
         <v>6.1497857142857146</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>0.66</v>
       </c>
@@ -11995,7 +11995,7 @@
         <v>6.1633714285714278</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>0.67500000000000004</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>6.1793857142857149</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0.69</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>6.1917285714285706</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>0.70499999999999996</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>6.1578857142857144</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>0.72</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>6.1271714285714287</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>0.73499999999999999</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>6.1511428571428572</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>0.75</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>6.1808000000000014</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>0.76500000000000001</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>6.2062857142857144</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>0.78</v>
       </c>
@@ -12107,7 +12107,7 @@
         <v>6.2092285714285724</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>0.79500000000000004</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>6.1825285714285716</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>0.81</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>6.1526714285714288</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>0.82499999999999996</v>
       </c>
@@ -12149,7 +12149,7 @@
         <v>6.1107714285714287</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>0.84</v>
       </c>
@@ -12163,7 +12163,7 @@
         <v>6.0116428571428573</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>0.85499999999999998</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>5.8642857142857139</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>0.87</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>5.677371428571429</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>0.88500000000000001</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>5.4968714285714286</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>0.9</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>5.3242857142857138</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>0.91500000000000004</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>5.1159571428571429</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>0.93</v>
       </c>
@@ -12247,7 +12247,7 @@
         <v>4.8139714285714286</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>0.94499999999999995</v>
       </c>
@@ -12261,7 +12261,7 @@
         <v>4.4715571428571428</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0.96</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>4.1722571428571431</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0.97499999999999998</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>3.9954142857142849</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>0.99</v>
       </c>
@@ -12303,7 +12303,7 @@
         <v>3.549114285714285</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1.0049999999999999</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>2.9090571428571428</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1.02</v>
       </c>
@@ -12331,7 +12331,7 @@
         <v>2.0918571428571431</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1.0349999999999999</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>0.69870857142857135</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1.05</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>0.2229685714285714</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1.0649999999999999</v>
       </c>
@@ -12373,7 +12373,7 @@
         <v>0.15275857142857141</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1.08</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>0.1187621428571429</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1.095</v>
       </c>
@@ -12401,7 +12401,7 @@
         <v>0.102024</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1.1100000000000001</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>9.9128999999999995E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1.125</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>9.9133571428571432E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1.1399999999999999</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>9.9847857142857141E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1.155</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>0.100439</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1.17</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>0.1017432857142857</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1.1850000000000001</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>0.102796</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1.2</v>
       </c>
@@ -12499,7 +12499,7 @@
         <v>0.10274285714285709</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1.2150000000000001</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>0.102774</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1.23</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>0.1025982857142857</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1.2450000000000001</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>0.103405</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1.26</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0.10453628571428571</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1.2749999999999999</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>0.1057807142857143</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1.29</v>
       </c>
@@ -12583,7 +12583,7 @@
         <v>0.1070252857142857</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1.3049999999999999</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>0.10680542857142861</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1.32</v>
       </c>
@@ -12611,7 +12611,7 @@
         <v>0.1069795714285714</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1.335</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>0.10774871428571429</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1.35</v>
       </c>
@@ -12639,7 +12639,7 @@
         <v>0.1081184285714286</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1.365</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>0.1082968571428571</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1.38</v>
       </c>
@@ -12667,7 +12667,7 @@
         <v>0.1090812857142857</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1.395</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>0.1095744285714286</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1.41</v>
       </c>
@@ -12695,7 +12695,7 @@
         <v>0.1106657142857143</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1.425</v>
       </c>
@@ -12709,7 +12709,7 @@
         <v>0.1117965714285714</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1.44</v>
       </c>
@@ -12723,7 +12723,7 @@
         <v>0.112855</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1.4550000000000001</v>
       </c>
@@ -12737,7 +12737,7 @@
         <v>0.1135892857142857</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1.47</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>0.11424957142857139</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1.4850000000000001</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>0.1147091428571429</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1.5</v>
       </c>
@@ -12794,9 +12794,9 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -12813,7 +12813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>15.159000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>0.03</v>
       </c>
@@ -12853,7 +12853,7 @@
         <v>3973.1550793650799</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>4.4999999999999998E-2</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>1.788585714285714</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>0.06</v>
       </c>
@@ -12881,7 +12881,7 @@
         <v>2.384785714285715</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>7.4999999999999997E-2</v>
       </c>
@@ -12895,7 +12895,7 @@
         <v>2.9809714285714288</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>0.09</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>3.577171428571428</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>0.105</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>4.1733571428571423</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>0.12</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>4.7684428571428574</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>0.13500000000000001</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>5.3632714285714282</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>0.15</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>5.9535428571428568</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>0.16500000000000001</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>6.5372857142857148</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>0.18</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>7.1080142857142858</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>0.19500000000000001</v>
       </c>
@@ -13007,7 +13007,7 @@
         <v>7.6509428571428577</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>0.21</v>
       </c>
@@ -13021,7 +13021,7 @@
         <v>8.1394857142857138</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>0.22500000000000001</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>8.6188285714285708</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>0.24</v>
       </c>
@@ -13049,7 +13049,7 @@
         <v>9.1648571428571426</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>0.255</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>9.7190714285714286</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>0.27</v>
       </c>
@@ -13077,7 +13077,7 @@
         <v>10.273114285714289</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>0.28499999999999998</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>10.82972857142857</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>11.385</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>0.315</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>11.939357142857141</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>0.33</v>
       </c>
@@ -13133,7 +13133,7 @@
         <v>12.48944285714286</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>0.34499999999999997</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>13.03592857142857</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>0.36</v>
       </c>
@@ -13161,7 +13161,7 @@
         <v>13.5708</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>0.375</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>14.074528571428569</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>0.39</v>
       </c>
@@ -13189,7 +13189,7 @@
         <v>14.538</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>0.40500000000000003</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>14.875999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>0.42</v>
       </c>
@@ -13217,7 +13217,7 @@
         <v>15.094428571428571</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>0.435</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>15.159000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>0.45</v>
       </c>
@@ -13245,7 +13245,7 @@
         <v>14.95142857142857</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>0.46500000000000002</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>14.476000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>0.48</v>
       </c>
@@ -13273,7 +13273,7 @@
         <v>13.022585714285711</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>0.495</v>
       </c>
@@ -13287,7 +13287,7 @@
         <v>10.41018571428571</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>0.51</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>7.8795571428571423</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>0.52500000000000002</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>7.7577428571428566</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>0.54</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>7.4092000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>0.55500000000000005</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>6.4475428571428566</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>0.56999999999999995</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>4.9136857142857151</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>0.58499999999999996</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>3.4730857142857139</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>0.6</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>2.2700714285714292</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>0.61499999999999999</v>
       </c>
@@ -13399,7 +13399,7 @@
         <v>1.20228</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>0.63</v>
       </c>
@@ -13413,7 +13413,7 @@
         <v>0.90577142857142867</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>0.64500000000000002</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>0.73700571428571438</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>0.66</v>
       </c>
@@ -13441,7 +13441,7 @@
         <v>0.65058571428571421</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>0.67500000000000004</v>
       </c>
@@ -13455,7 +13455,7 @@
         <v>0.5436200000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>0.69</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>0.50084571428571423</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>0.70499999999999996</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>0.44420571428571431</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>0.72</v>
       </c>
@@ -13497,7 +13497,7 @@
         <v>0.15268142857142861</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>0.73499999999999999</v>
       </c>
@@ -13511,7 +13511,7 @@
         <v>8.831671428571429E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>0.75</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>7.1815142857142855E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>0.76500000000000001</v>
       </c>
@@ -13539,7 +13539,7 @@
         <v>6.7356142857142851E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>0.78</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>6.6001428571428572E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>0.79500000000000004</v>
       </c>
@@ -13567,7 +13567,7 @@
         <v>6.532457142857144E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>0.81</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>6.3868285714285725E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>0.82499999999999996</v>
       </c>
@@ -13595,7 +13595,7 @@
         <v>6.3488857142857139E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>0.84</v>
       </c>
@@ -13609,7 +13609,7 @@
         <v>6.4430999999999988E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>0.85499999999999998</v>
       </c>
@@ -13623,7 +13623,7 @@
         <v>6.530942857142856E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>0.87</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>6.632842857142858E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>0.88500000000000001</v>
       </c>
@@ -13651,7 +13651,7 @@
         <v>6.6845142857142867E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>0.9</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>6.7314285714285715E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>0.91500000000000004</v>
       </c>
@@ -13679,7 +13679,7 @@
         <v>6.8317714285714287E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>0.93</v>
       </c>
@@ -13693,7 +13693,7 @@
         <v>6.9416999999999993E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>0.94499999999999995</v>
       </c>
@@ -13707,7 +13707,7 @@
         <v>7.0482142857142854E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>0.96</v>
       </c>
@@ -13721,7 +13721,7 @@
         <v>7.152242857142857E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>0.97499999999999998</v>
       </c>
@@ -13735,7 +13735,7 @@
         <v>7.2414999999999993E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>0.99</v>
       </c>
@@ -13749,7 +13749,7 @@
         <v>7.3143571428571433E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>1.0049999999999999</v>
       </c>
@@ -13763,7 +13763,7 @@
         <v>7.366914285714285E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>1.02</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>7.4507000000000004E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>1.0349999999999999</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>7.5432714285714283E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>1.05</v>
       </c>
@@ -13805,7 +13805,7 @@
         <v>7.6482714285714293E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>1.0649999999999999</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>7.7430285714285715E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>1.08</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>7.841114285714286E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>1.095</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>7.9420714285714289E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>1.1100000000000001</v>
       </c>
@@ -13861,7 +13861,7 @@
         <v>8.0424999999999996E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>1.125</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>8.1478714285714279E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>1.1399999999999999</v>
       </c>
@@ -13889,7 +13889,7 @@
         <v>8.2534428571428564E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>1.155</v>
       </c>
@@ -13903,7 +13903,7 @@
         <v>8.3499571428571423E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>1.17</v>
       </c>
@@ -13917,7 +13917,7 @@
         <v>8.4540428571428572E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>1.1850000000000001</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>8.5484000000000004E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>1.2</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>8.6417285714285724E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>1.2150000000000001</v>
       </c>
@@ -13959,7 +13959,7 @@
         <v>8.7482999999999991E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>1.23</v>
       </c>
@@ -13973,7 +13973,7 @@
         <v>8.8563000000000003E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>1.2450000000000001</v>
       </c>
@@ -13987,7 +13987,7 @@
         <v>8.9629285714285717E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>1.26</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>8.974242857142857E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>1.2749999999999999</v>
       </c>
@@ -14015,7 +14015,7 @@
         <v>9.0756000000000003E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>1.29</v>
       </c>
@@ -14029,7 +14029,7 @@
         <v>9.1725714285714285E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>1.3049999999999999</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>9.264328571428572E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>1.32</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>9.338171428571429E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>1.335</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>8.9829714285714291E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>1.35</v>
       </c>
@@ -14085,7 +14085,7 @@
         <v>8.9726285714285717E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>1.365</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>9.0086142857142851E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>1.38</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>9.0470857142857145E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>1.395</v>
       </c>
@@ -14127,7 +14127,7 @@
         <v>9.116571428571428E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>1.41</v>
       </c>
@@ -14141,7 +14141,7 @@
         <v>9.1988285714285717E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>1.425</v>
       </c>
@@ -14155,7 +14155,7 @@
         <v>9.2761428571428564E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>1.44</v>
       </c>
@@ -14169,7 +14169,7 @@
         <v>9.3477285714285707E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>1.4550000000000001</v>
       </c>
@@ -14183,7 +14183,7 @@
         <v>9.4327857142857144E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>1.47</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>9.5047857142857142E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>1.4850000000000001</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>9.5860428571428569E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>1.5</v>
       </c>
